--- a/ClosedXML.Tests/Resource/Examples/PageSetup/SheetTab.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PageSetup/SheetTab.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/PageSetup/SheetTab.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/PageSetup/SheetTab.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet Tab" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet Tab" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet Tab'!$A$1:$B$2,'Sheet Tab'!$D$3:$D$5</x:definedName>
